--- a/ExperimentoMassa.xlsx
+++ b/ExperimentoMassa.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeda\Documents\GitHub\Mechanical_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6250" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6250"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="2" r:id="rId1"/>
     <sheet name="1x1" sheetId="3" r:id="rId2"/>
-    <sheet name="2x1" sheetId="5" r:id="rId3"/>
-    <sheet name="2x2" sheetId="1" r:id="rId4"/>
-    <sheet name="2x4" sheetId="6" r:id="rId5"/>
-    <sheet name="2x8" sheetId="4" r:id="rId6"/>
+    <sheet name="1x2" sheetId="5" r:id="rId3"/>
+    <sheet name="1x3" sheetId="7" r:id="rId4"/>
+    <sheet name="1x4" sheetId="8" r:id="rId5"/>
+    <sheet name="2x2" sheetId="1" r:id="rId6"/>
+    <sheet name="2x4" sheetId="6" r:id="rId7"/>
+    <sheet name="2x8" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Experimento</t>
     <phoneticPr fontId="2"/>
@@ -47,10 +49,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">81/64 = </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Erro (%)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -63,10 +61,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1X2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2x8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -79,10 +73,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(10% de erro se assumirquatro vezes da massa do 2x2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>139/2000 =</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -92,6 +82,54 @@
   </si>
   <si>
     <t>(5.1% de erro se assumir o valor que a Sugimoto usou)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1x3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2x4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">39/160 = </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17/175 =</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(10% de erro se assumir quatro vezes da massa do 2x2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1x4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2.3% de erro se assumir a proporcao do 2x2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1.7% de erro se assunir igual ao 2x2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3.7% de erro se assumir o dobro do 2x2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>103/800 =</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">81/640 = </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -99,12 +137,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="179" formatCode="0.000000"/>
-    <numFmt numFmtId="180" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.00000000"/>
-    <numFmt numFmtId="185" formatCode="0.000%"/>
-    <numFmt numFmtId="196" formatCode="0.0000%"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="0.0000%"/>
+    <numFmt numFmtId="182" formatCode="0.0000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,51 +201,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,90 +537,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="F2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="9">
         <f>8.5/(28*8)</f>
         <v>3.7946428571428568E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
         <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="9">
         <f>13.9/(8*25)</f>
         <v>6.9500000000000006E-2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14">
+        <f>6.8/(7*10)</f>
+        <v>9.7142857142857142E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
+        <f>10.3/(10*8)</f>
+        <v>0.12875</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9">
         <f>16.2/(16*8)</f>
         <v>0.12656249999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
+        <f>23.4/(24*4)</f>
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <f>22/(24*2)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="10"/>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -611,7 +726,7 @@
         <v>224</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -728,7 +843,7 @@
         <v>200</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -814,10 +929,251 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>1/(1*10)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <f>B2*C1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2*D1</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>B2*E1</f>
+        <v>7</v>
+      </c>
+      <c r="F2" s="7">
+        <f>0.1/E2</f>
+        <v>1.4285714285714287E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2.9/(3*10)</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C3">
+        <f>B3*C1</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D3">
+        <f>B3*D1</f>
+        <v>2.9</v>
+      </c>
+      <c r="E3">
+        <f>B3*E1</f>
+        <v>6.7666666666666666</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F5" si="0">0.1/E3</f>
+        <v>1.477832512315271E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>6.8/(7*10)</f>
+        <v>9.7142857142857142E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4*C1</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4*D1</f>
+        <v>2.9142857142857141</v>
+      </c>
+      <c r="E4" s="6">
+        <f>B4*E1</f>
+        <v>6.8</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4705882352941178E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>24</v>
+      </c>
+      <c r="D1">
+        <v>56</v>
+      </c>
+      <c r="E1">
+        <v>80</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>3.1/(3*8)</f>
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="C2">
+        <f>B2*C1</f>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="D2">
+        <f>B2*D1</f>
+        <v>7.2333333333333343</v>
+      </c>
+      <c r="E2">
+        <f>B2*E1</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F2" s="7">
+        <f>0.1/E2</f>
+        <v>9.6774193548387101E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f>7.2/(7*8)</f>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="C3">
+        <f>B3*C1</f>
+        <v>3.0857142857142863</v>
+      </c>
+      <c r="D3">
+        <f>B3*D1</f>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="E3">
+        <f>B3*E1</f>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F4" si="0">0.1/E3</f>
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>10.3/(10*8)</f>
+        <v>0.12875</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4*C1</f>
+        <v>3.09</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4*D1</f>
+        <v>7.21</v>
+      </c>
+      <c r="E4" s="6">
+        <f>B4*E1</f>
+        <v>10.3</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -852,7 +1208,7 @@
         <v>240</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1027,12 +1383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1058,7 +1414,7 @@
         <v>96</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1081,7 +1437,7 @@
         <f>B2*E1</f>
         <v>24</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>0.1/E2</f>
         <v>4.1666666666666666E-3</v>
       </c>
@@ -1106,7 +1462,7 @@
         <f>B3*E1</f>
         <v>23.4</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F4" si="0">0.1/E3</f>
         <v>4.2735042735042739E-3</v>
       </c>
@@ -1131,7 +1487,7 @@
         <f>B4*E1</f>
         <v>23.4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>4.2735042735042739E-3</v>
       </c>
@@ -1143,7 +1499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1174,7 +1530,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1197,7 +1553,7 @@
         <f>B2*E1</f>
         <v>21.6</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>0.1/E2</f>
         <v>4.6296296296296294E-3</v>
       </c>
@@ -1223,7 +1579,7 @@
         <f>B3*E1</f>
         <v>22</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F4" si="0">0.1/E3</f>
         <v>4.5454545454545461E-3</v>
       </c>
@@ -1249,11 +1605,11 @@
         <f>B4*E1</f>
         <v>22</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>4.5454545454545461E-3</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">

--- a/ExperimentoMassa.xlsx
+++ b/ExperimentoMassa.xlsx
@@ -143,7 +143,7 @@
     <numFmt numFmtId="178" formatCode="0.00000000"/>
     <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="180" formatCode="0.0000%"/>
-    <numFmt numFmtId="182" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -250,7 +250,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -540,7 +540,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="F2:G8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1007,7 +1007,7 @@
         <v>6.7666666666666666</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F5" si="0">0.1/E3</f>
+        <f t="shared" ref="F3:F4" si="0">0.1/E3</f>
         <v>1.477832512315271E-2</v>
       </c>
     </row>
